--- a/xlSpreadheets/CompFinance_TARF.xlsx
+++ b/xlSpreadheets/CompFinance_TARF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\github\CompFinanceForked\xlSpreadheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE30F31D-4E38-433C-A7BB-67D627894BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B3D97E-0823-4DD8-B72C-96FDB1EFC60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14850" yWindow="2610" windowWidth="26490" windowHeight="17415" xr2:uid="{BDEAFC69-B344-4E4B-B956-EB216422D3BF}"/>
+    <workbookView xWindow="2325" yWindow="915" windowWidth="27375" windowHeight="18675" xr2:uid="{BDEAFC69-B344-4E4B-B956-EB216422D3BF}"/>
   </bookViews>
   <sheets>
     <sheet name="TARF" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Product</t>
   </si>
@@ -135,6 +135,12 @@
   </si>
   <si>
     <t>Price</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>AAD Greeks</t>
   </si>
 </sst>
 </file>
@@ -685,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F251062C-0694-4968-A5DE-E0E7FA51EFE5}">
-  <dimension ref="B2:N315"/>
+  <dimension ref="B1:T315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,14 +706,20 @@
     <col min="11" max="11" width="17" customWidth="1"/>
     <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
+    <col min="21" max="21" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="5" t="str" cm="1">
-        <f t="array" ref="C2">_xll.xTarf(C3,C5,C6,C7,C9,C8,C4,C10,"TARF")</f>
+        <f t="array" ref="C2">_xll.xTarf(C4,C6,C7,C8,C10,C9,C5,C11,"TARF")</f>
         <v>TARF</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -720,7 +732,7 @@
         <v>3</v>
       </c>
       <c r="I2" s="5" t="str">
-        <f ca="1">_xll.xPutBlackScholes(I3,I4,I7,I5,I6,"BS")</f>
+        <f>_xll.xPutBlackScholes(I3,I4,I7,I5,I6,"BS")</f>
         <v>BS</v>
       </c>
       <c r="L2" t="s">
@@ -732,43 +744,69 @@
       <c r="N2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="19">
-        <v>20</v>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="str" cm="1">
+        <f t="array" ref="C3">_xll.xPayoffIds(C2)</f>
+        <v>tarf 1.00 20.00</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="I3" s="6">
-        <f ca="1">F2</f>
+        <f>F2</f>
         <v>18</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3">
-        <f ca="1">L7</f>
-        <v>114</v>
+        <f>L7</f>
+        <v>220</v>
       </c>
       <c r="M3">
-        <f ca="1">M7</f>
-        <v>539</v>
+        <f>M7</f>
+        <v>1201</v>
       </c>
       <c r="N3">
         <f ca="1">M3/L3</f>
-        <v>4.7280701754385968</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="13">
-        <v>1</v>
+        <v>5.459090909090909</v>
+      </c>
+      <c r="P3" t="str" cm="1">
+        <f t="array" aca="1" ref="P3:Q8" ca="1">_xll.xAADriskTime(I2,C2,C3,F8,F9,F10,F7,TRUE)</f>
+        <v>value</v>
+      </c>
+      <c r="Q3">
+        <f ca="1"/>
+        <v>-247.07714810897585</v>
+      </c>
+      <c r="R3" t="str" cm="1">
+        <f t="array" aca="1" ref="R3:S8" ca="1">_xll.xAADriskTime(I2,C2,C3,F8,F9,F10,F7,FALSE)</f>
+        <v>value</v>
+      </c>
+      <c r="S3">
+        <f ca="1"/>
+        <v>-247.07714810897585</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="19">
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>5</v>
@@ -780,20 +818,36 @@
         <v>16</v>
       </c>
       <c r="L4">
-        <f ca="1">1/(L3/1000)</f>
-        <v>8.7719298245614024</v>
+        <f>1/(L3/1000)</f>
+        <v>4.5454545454545459</v>
       </c>
       <c r="M4">
-        <f ca="1">1/(M3/1000)</f>
-        <v>1.8552875695732838</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+        <f>1/(M3/1000)</f>
+        <v>0.83263946711074099</v>
+      </c>
+      <c r="P4" t="str">
+        <f ca="1"/>
+        <v>spot</v>
+      </c>
+      <c r="Q4">
+        <f ca="1"/>
+        <v>21.374469549501402</v>
+      </c>
+      <c r="R4" t="str">
+        <f ca="1"/>
+        <v>spot</v>
+      </c>
+      <c r="S4">
+        <f ca="1"/>
+        <v>21.374469549501125</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="17">
-        <v>15</v>
+        <v>18</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>6</v>
@@ -801,13 +855,29 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="str">
+        <f ca="1"/>
+        <v>vol</v>
+      </c>
+      <c r="Q5">
+        <f ca="1"/>
+        <v>-332.24844859026814</v>
+      </c>
+      <c r="R5" t="str">
+        <f ca="1"/>
+        <v>vol</v>
+      </c>
+      <c r="S5">
+        <f ca="1"/>
+        <v>-332.24844859026723</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="17">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>7</v>
@@ -815,7 +885,7 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
         <v>25</v>
       </c>
       <c r="L6" cm="1">
@@ -826,13 +896,29 @@
         <f t="array" aca="1" ref="M6:M7" ca="1">_xll.xValueTime(I2,C2,F8,F9,F10,F7,FALSE)</f>
         <v>-247.07714810897448</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="str">
+        <f ca="1"/>
+        <v>rate</v>
+      </c>
+      <c r="Q6">
+        <f ca="1"/>
+        <v>464.62664318595245</v>
+      </c>
+      <c r="R6" t="str">
+        <f ca="1"/>
+        <v>rate</v>
+      </c>
+      <c r="S6">
+        <f ca="1"/>
+        <v>464.62664318595358</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="18">
-        <v>30</v>
+        <v>21</v>
+      </c>
+      <c r="C7" s="17">
+        <v>20</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>2</v>
@@ -848,19 +934,35 @@
       </c>
       <c r="L7">
         <f ca="1"/>
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="M7">
         <f ca="1"/>
-        <v>539</v>
-      </c>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+        <v>452</v>
+      </c>
+      <c r="P7" t="str">
+        <f ca="1"/>
+        <v>div</v>
+      </c>
+      <c r="Q7">
+        <f ca="1"/>
+        <v>-217.54949507697654</v>
+      </c>
+      <c r="R7" t="str">
+        <f ca="1"/>
+        <v>div</v>
+      </c>
+      <c r="S7">
+        <f ca="1"/>
+        <v>-217.54949507697626</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="16">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="C8" s="18">
+        <v>30</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>9</v>
@@ -868,13 +970,33 @@
       <c r="F8" s="9" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="str">
+        <f ca="1"/>
+        <v>time</v>
+      </c>
+      <c r="Q8">
+        <f ca="1"/>
+        <v>243</v>
+      </c>
+      <c r="R8" t="str">
+        <f ca="1"/>
+        <v>time</v>
+      </c>
+      <c r="S8">
+        <f ca="1"/>
+        <v>1020</v>
+      </c>
+      <c r="T8">
+        <f ca="1">S8/Q8</f>
+        <v>4.1975308641975309</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>10</v>
@@ -883,22 +1005,30 @@
         <v>12345</v>
       </c>
     </row>
-    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="14" t="s">
+    <row r="10" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="16">
+        <v>2</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="9">
+        <v>12346</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C11" s="15">
         <f>1/52</f>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" s="9">
-        <v>12346</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="F15" s="2"/>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
